--- a/database/industries/bargh/bemoto/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/bargh/bemoto/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\bargh\bemoto\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\bargh\bemoto\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE95F908-D6B2-4B4F-A469-E493277C9513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BCA536-1B89-41F7-878C-8F517DDB7A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>3 ماهه منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>3 ماهه منتهی به 1401/09</t>
   </si>
   <si>
+    <t>6 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-09-10 (10)</t>
-  </si>
-  <si>
     <t>1400-10-29 (2)</t>
   </si>
   <si>
@@ -88,16 +85,16 @@
     <t>1401-10-28 (2)</t>
   </si>
   <si>
-    <t>1401-03-11 (3)</t>
+    <t>1402-02-23 (5)</t>
   </si>
   <si>
     <t>1401-04-28</t>
   </si>
   <si>
-    <t>1401-10-28 (3)</t>
-  </si>
-  <si>
     <t>1401-10-28</t>
+  </si>
+  <si>
+    <t>1402-02-23 (2)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -619,19 +616,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="9" max="11" width="28" customWidth="1"/>
-    <col min="12" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="28" customWidth="1"/>
+    <col min="4" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="10" width="28" customWidth="1"/>
+    <col min="11" max="11" width="29" customWidth="1"/>
+    <col min="12" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -645,7 +641,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -661,7 +657,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -677,7 +673,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -691,7 +687,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -707,7 +703,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -723,7 +719,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -737,7 +733,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -773,7 +769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -800,16 +796,16 @@
         <v>22</v>
       </c>
       <c r="K9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="M9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -823,153 +819,153 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>9208888</v>
+        <v>1756035</v>
       </c>
       <c r="E11" s="13">
-        <v>1756035</v>
+        <v>7956721</v>
       </c>
       <c r="F11" s="13">
-        <v>7956721</v>
+        <v>11602959</v>
       </c>
       <c r="G11" s="13">
-        <v>11602959</v>
+        <v>14968897</v>
       </c>
       <c r="H11" s="13">
-        <v>14968897</v>
+        <v>3746818</v>
       </c>
       <c r="I11" s="13">
-        <v>3746818</v>
+        <v>9378034</v>
       </c>
       <c r="J11" s="13">
-        <v>9150334</v>
+        <v>14416637</v>
       </c>
       <c r="K11" s="13">
-        <v>14416637</v>
+        <v>18218642</v>
       </c>
       <c r="L11" s="13">
-        <v>18218642</v>
+        <v>6370650</v>
       </c>
       <c r="M11" s="13">
-        <v>6370650</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>17894704</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-6214939</v>
+        <v>-454670</v>
       </c>
       <c r="E12" s="11">
-        <v>-454670</v>
+        <v>-3915263</v>
       </c>
       <c r="F12" s="11">
-        <v>-3915263</v>
+        <v>-6162247</v>
       </c>
       <c r="G12" s="11">
-        <v>-6162247</v>
+        <v>-8136167</v>
       </c>
       <c r="H12" s="11">
-        <v>-8136167</v>
+        <v>-2370971</v>
       </c>
       <c r="I12" s="11">
-        <v>-2370971</v>
+        <v>-5622484</v>
       </c>
       <c r="J12" s="11">
-        <v>-5622484</v>
+        <v>-8737649</v>
       </c>
       <c r="K12" s="11">
-        <v>-8737649</v>
+        <v>-11767955</v>
       </c>
       <c r="L12" s="11">
-        <v>-11767955</v>
+        <v>-4246396</v>
       </c>
       <c r="M12" s="11">
-        <v>-4246396</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-11962944</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>2993949</v>
+        <v>1301365</v>
       </c>
       <c r="E13" s="15">
-        <v>1301365</v>
+        <v>4041458</v>
       </c>
       <c r="F13" s="15">
-        <v>4041458</v>
+        <v>5440712</v>
       </c>
       <c r="G13" s="15">
-        <v>5440712</v>
+        <v>6832730</v>
       </c>
       <c r="H13" s="15">
-        <v>6832730</v>
+        <v>1375847</v>
       </c>
       <c r="I13" s="15">
-        <v>1375847</v>
+        <v>3755550</v>
       </c>
       <c r="J13" s="15">
-        <v>3527850</v>
+        <v>5678988</v>
       </c>
       <c r="K13" s="15">
-        <v>5678988</v>
+        <v>6450687</v>
       </c>
       <c r="L13" s="15">
-        <v>6450687</v>
+        <v>2124254</v>
       </c>
       <c r="M13" s="15">
-        <v>2124254</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>5931760</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-99280</v>
+        <v>-19180</v>
       </c>
       <c r="E14" s="11">
-        <v>-19180</v>
+        <v>-42326</v>
       </c>
       <c r="F14" s="11">
-        <v>-42326</v>
+        <v>-68428</v>
       </c>
       <c r="G14" s="11">
-        <v>-68428</v>
+        <v>-234559</v>
       </c>
       <c r="H14" s="11">
-        <v>-234559</v>
+        <v>-36974</v>
       </c>
       <c r="I14" s="11">
-        <v>-36974</v>
+        <v>-78692</v>
       </c>
       <c r="J14" s="11">
-        <v>-78691</v>
+        <v>-166277</v>
       </c>
       <c r="K14" s="11">
-        <v>-166277</v>
+        <v>-398388</v>
       </c>
       <c r="L14" s="11">
-        <v>-398388</v>
+        <v>-118543</v>
       </c>
       <c r="M14" s="11">
-        <v>-118543</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-405371</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -1003,261 +999,261 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>531333</v>
+        <v>117849</v>
       </c>
       <c r="E16" s="11">
-        <v>117849</v>
+        <v>185227</v>
       </c>
       <c r="F16" s="11">
-        <v>185227</v>
+        <v>703751</v>
       </c>
       <c r="G16" s="11">
-        <v>703751</v>
+        <v>874065</v>
       </c>
       <c r="H16" s="11">
-        <v>874065</v>
+        <v>200546</v>
       </c>
       <c r="I16" s="11">
-        <v>200546</v>
+        <v>558237</v>
       </c>
       <c r="J16" s="11">
-        <v>785936</v>
+        <v>822230</v>
       </c>
       <c r="K16" s="11">
-        <v>822230</v>
+        <v>959816</v>
       </c>
       <c r="L16" s="11">
-        <v>959816</v>
+        <v>128925</v>
       </c>
       <c r="M16" s="11">
-        <v>128925</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>594917</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>3426002</v>
+        <v>1400034</v>
       </c>
       <c r="E17" s="15">
-        <v>1400034</v>
+        <v>4184359</v>
       </c>
       <c r="F17" s="15">
-        <v>4184359</v>
+        <v>6076035</v>
       </c>
       <c r="G17" s="15">
-        <v>6076035</v>
+        <v>7472236</v>
       </c>
       <c r="H17" s="15">
-        <v>7472236</v>
+        <v>1539419</v>
       </c>
       <c r="I17" s="15">
-        <v>1539419</v>
+        <v>4235095</v>
       </c>
       <c r="J17" s="15">
-        <v>4235095</v>
+        <v>6334941</v>
       </c>
       <c r="K17" s="15">
-        <v>6334941</v>
+        <v>7012115</v>
       </c>
       <c r="L17" s="15">
-        <v>7012115</v>
+        <v>2134636</v>
       </c>
       <c r="M17" s="15">
-        <v>2134636</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>6121306</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-186380</v>
+        <v>-131619</v>
       </c>
       <c r="E18" s="11">
-        <v>-131619</v>
+        <v>-315875</v>
       </c>
       <c r="F18" s="11">
-        <v>-315875</v>
+        <v>-488841</v>
       </c>
       <c r="G18" s="11">
-        <v>-488841</v>
+        <v>-1006592</v>
       </c>
       <c r="H18" s="11">
-        <v>-1006592</v>
+        <v>-285344</v>
       </c>
       <c r="I18" s="11">
-        <v>-285344</v>
+        <v>-876843</v>
       </c>
       <c r="J18" s="11">
-        <v>-876843</v>
+        <v>-1050761</v>
       </c>
       <c r="K18" s="11">
-        <v>-1050761</v>
+        <v>-1698270</v>
       </c>
       <c r="L18" s="11">
-        <v>-1698270</v>
+        <v>-363712</v>
       </c>
       <c r="M18" s="11">
-        <v>-363712</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-787802</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>159206</v>
+        <v>-814</v>
       </c>
       <c r="E19" s="13">
-        <v>-814</v>
+        <v>46117</v>
       </c>
       <c r="F19" s="13">
-        <v>46117</v>
+        <v>60826</v>
       </c>
       <c r="G19" s="13">
-        <v>60826</v>
+        <v>148108</v>
       </c>
       <c r="H19" s="13">
-        <v>148108</v>
+        <v>220127</v>
       </c>
       <c r="I19" s="13">
-        <v>220127</v>
+        <v>32904</v>
       </c>
       <c r="J19" s="13">
-        <v>32905</v>
+        <v>57379</v>
       </c>
       <c r="K19" s="13">
-        <v>57379</v>
+        <v>129791</v>
       </c>
       <c r="L19" s="13">
-        <v>129791</v>
+        <v>44203</v>
       </c>
       <c r="M19" s="13">
-        <v>44203</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>240090</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>3398828</v>
+        <v>1267601</v>
       </c>
       <c r="E20" s="17">
-        <v>1267601</v>
+        <v>3914601</v>
       </c>
       <c r="F20" s="17">
-        <v>3914601</v>
+        <v>5648020</v>
       </c>
       <c r="G20" s="17">
-        <v>5648020</v>
+        <v>6613752</v>
       </c>
       <c r="H20" s="17">
-        <v>6613752</v>
+        <v>1474202</v>
       </c>
       <c r="I20" s="17">
-        <v>1474202</v>
+        <v>3391156</v>
       </c>
       <c r="J20" s="17">
-        <v>3391157</v>
+        <v>5341559</v>
       </c>
       <c r="K20" s="17">
-        <v>5341559</v>
+        <v>5443636</v>
       </c>
       <c r="L20" s="17">
-        <v>5443636</v>
+        <v>1815127</v>
       </c>
       <c r="M20" s="17">
-        <v>1815127</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>5573594</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-575545</v>
+        <v>-288609</v>
       </c>
       <c r="E21" s="13">
-        <v>-288609</v>
+        <v>-877110</v>
       </c>
       <c r="F21" s="13">
-        <v>-877110</v>
+        <v>-1266864</v>
       </c>
       <c r="G21" s="13">
-        <v>-1266864</v>
+        <v>-994745</v>
       </c>
       <c r="H21" s="13">
-        <v>-994745</v>
+        <v>-300182</v>
       </c>
       <c r="I21" s="13">
-        <v>-300182</v>
+        <v>-569268</v>
       </c>
       <c r="J21" s="13">
-        <v>-569268</v>
+        <v>-920495</v>
       </c>
       <c r="K21" s="13">
-        <v>-920495</v>
+        <v>-1051383</v>
       </c>
       <c r="L21" s="13">
-        <v>-1051383</v>
+        <v>-298911</v>
       </c>
       <c r="M21" s="13">
-        <v>-298911</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1317860</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>2823283</v>
+        <v>978992</v>
       </c>
       <c r="E22" s="17">
-        <v>978992</v>
+        <v>3037491</v>
       </c>
       <c r="F22" s="17">
-        <v>3037491</v>
+        <v>4381156</v>
       </c>
       <c r="G22" s="17">
-        <v>4381156</v>
+        <v>5619007</v>
       </c>
       <c r="H22" s="17">
-        <v>5619007</v>
+        <v>1174020</v>
       </c>
       <c r="I22" s="17">
-        <v>1174020</v>
+        <v>2821888</v>
       </c>
       <c r="J22" s="17">
-        <v>2821889</v>
+        <v>4421064</v>
       </c>
       <c r="K22" s="17">
-        <v>4421064</v>
+        <v>4392253</v>
       </c>
       <c r="L22" s="17">
-        <v>4392253</v>
+        <v>1516216</v>
       </c>
       <c r="M22" s="17">
-        <v>1516216</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4255734</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1291,81 +1287,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>2823283</v>
+        <v>978992</v>
       </c>
       <c r="E24" s="17">
-        <v>978992</v>
+        <v>3037491</v>
       </c>
       <c r="F24" s="17">
-        <v>3037491</v>
+        <v>4381156</v>
       </c>
       <c r="G24" s="17">
-        <v>4381156</v>
+        <v>5619007</v>
       </c>
       <c r="H24" s="17">
-        <v>5619007</v>
+        <v>1174020</v>
       </c>
       <c r="I24" s="17">
-        <v>1174020</v>
+        <v>2821888</v>
       </c>
       <c r="J24" s="17">
-        <v>2821889</v>
+        <v>4421064</v>
       </c>
       <c r="K24" s="17">
-        <v>4421064</v>
+        <v>4392253</v>
       </c>
       <c r="L24" s="17">
-        <v>4392253</v>
+        <v>1516216</v>
       </c>
       <c r="M24" s="17">
-        <v>1516216</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4255734</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>4149</v>
+        <v>1439</v>
       </c>
       <c r="E25" s="13">
-        <v>1439</v>
+        <v>4464</v>
       </c>
       <c r="F25" s="13">
-        <v>4464</v>
+        <v>307</v>
       </c>
       <c r="G25" s="13">
+        <v>8258</v>
+      </c>
+      <c r="H25" s="13">
+        <v>82</v>
+      </c>
+      <c r="I25" s="13">
+        <v>197</v>
+      </c>
+      <c r="J25" s="13">
+        <v>309</v>
+      </c>
+      <c r="K25" s="13">
         <v>307</v>
       </c>
-      <c r="H25" s="13">
-        <v>8258</v>
-      </c>
-      <c r="I25" s="13">
-        <v>82</v>
-      </c>
-      <c r="J25" s="13">
-        <v>197</v>
-      </c>
-      <c r="K25" s="13">
-        <v>309</v>
-      </c>
       <c r="L25" s="13">
-        <v>307</v>
+        <v>106</v>
       </c>
       <c r="M25" s="13">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
@@ -1375,13 +1371,13 @@
         <v>680400</v>
       </c>
       <c r="F26" s="11">
+        <v>14288400</v>
+      </c>
+      <c r="G26" s="11">
         <v>680400</v>
       </c>
-      <c r="G26" s="11">
+      <c r="H26" s="11">
         <v>14288400</v>
-      </c>
-      <c r="H26" s="11">
-        <v>680400</v>
       </c>
       <c r="I26" s="11">
         <v>14288400</v>
@@ -1399,43 +1395,43 @@
         <v>14288400</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>69</v>
+      </c>
+      <c r="E27" s="13">
+        <v>213</v>
+      </c>
+      <c r="F27" s="13">
+        <v>307</v>
+      </c>
+      <c r="G27" s="13">
+        <v>393</v>
+      </c>
+      <c r="H27" s="13">
+        <v>82</v>
+      </c>
+      <c r="I27" s="13">
         <v>198</v>
       </c>
-      <c r="E27" s="13">
-        <v>69</v>
-      </c>
-      <c r="F27" s="13">
-        <v>213</v>
-      </c>
-      <c r="G27" s="13">
+      <c r="J27" s="13">
+        <v>309</v>
+      </c>
+      <c r="K27" s="13">
         <v>307</v>
       </c>
-      <c r="H27" s="13">
-        <v>393</v>
-      </c>
-      <c r="I27" s="13">
-        <v>82</v>
-      </c>
-      <c r="J27" s="13">
-        <v>198</v>
-      </c>
-      <c r="K27" s="13">
-        <v>309</v>
-      </c>
       <c r="L27" s="13">
-        <v>307</v>
+        <v>106</v>
       </c>
       <c r="M27" s="13">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/bargh/bemoto/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/bargh/bemoto/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\bargh\bemoto\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\bargh\bemoto\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BCA536-1B89-41F7-878C-8F517DDB7A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE1BD75-A78D-4C16-BD3B-B8999FD42A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
     <t>1401-10-28 (2)</t>
   </si>
   <si>
-    <t>1402-02-23 (5)</t>
+    <t>1402-03-09 (6)</t>
   </si>
   <si>
     <t>1401-04-28</t>
@@ -94,7 +94,7 @@
     <t>1401-10-28</t>
   </si>
   <si>
-    <t>1402-02-23 (2)</t>
+    <t>1402-03-09 (3)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -888,7 +888,7 @@
         <v>-4246396</v>
       </c>
       <c r="M12" s="11">
-        <v>-11962944</v>
+        <v>-11934456</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
@@ -924,7 +924,7 @@
         <v>2124254</v>
       </c>
       <c r="M13" s="15">
-        <v>5931760</v>
+        <v>5960248</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
@@ -948,7 +948,7 @@
         <v>-36974</v>
       </c>
       <c r="I14" s="11">
-        <v>-78692</v>
+        <v>-78691</v>
       </c>
       <c r="J14" s="11">
         <v>-166277</v>
@@ -960,7 +960,7 @@
         <v>-118543</v>
       </c>
       <c r="M14" s="11">
-        <v>-405371</v>
+        <v>-434524</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
@@ -1056,7 +1056,7 @@
         <v>1539419</v>
       </c>
       <c r="I17" s="15">
-        <v>4235095</v>
+        <v>4235096</v>
       </c>
       <c r="J17" s="15">
         <v>6334941</v>
@@ -1068,7 +1068,7 @@
         <v>2134636</v>
       </c>
       <c r="M17" s="15">
-        <v>6121306</v>
+        <v>6120641</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
@@ -1104,7 +1104,7 @@
         <v>-363712</v>
       </c>
       <c r="M18" s="11">
-        <v>-787802</v>
+        <v>-787803</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
@@ -1164,7 +1164,7 @@
         <v>1474202</v>
       </c>
       <c r="I20" s="17">
-        <v>3391156</v>
+        <v>3391157</v>
       </c>
       <c r="J20" s="17">
         <v>5341559</v>
@@ -1176,7 +1176,7 @@
         <v>1815127</v>
       </c>
       <c r="M20" s="17">
-        <v>5573594</v>
+        <v>5572928</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
@@ -1212,7 +1212,7 @@
         <v>-298911</v>
       </c>
       <c r="M21" s="13">
-        <v>-1317860</v>
+        <v>-1111818</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
@@ -1236,7 +1236,7 @@
         <v>1174020</v>
       </c>
       <c r="I22" s="17">
-        <v>2821888</v>
+        <v>2821889</v>
       </c>
       <c r="J22" s="17">
         <v>4421064</v>
@@ -1248,7 +1248,7 @@
         <v>1516216</v>
       </c>
       <c r="M22" s="17">
-        <v>4255734</v>
+        <v>4461110</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
@@ -1308,7 +1308,7 @@
         <v>1174020</v>
       </c>
       <c r="I24" s="17">
-        <v>2821888</v>
+        <v>2821889</v>
       </c>
       <c r="J24" s="17">
         <v>4421064</v>
@@ -1320,7 +1320,7 @@
         <v>1516216</v>
       </c>
       <c r="M24" s="17">
-        <v>4255734</v>
+        <v>4461110</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
@@ -1356,7 +1356,7 @@
         <v>106</v>
       </c>
       <c r="M25" s="13">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
@@ -1428,7 +1428,7 @@
         <v>106</v>
       </c>
       <c r="M27" s="13">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
